--- a/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB4D441-012D-4CD6-B9AA-5EE3528EB5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86BDC9F-3FE9-481C-B704-B7E6AAD032E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0BAF1BA-6168-4ECE-A64A-73F7FB143113}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D75D3F5-7A9B-4ECD-BAA6-86A255639A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="135">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -353,10 +353,10 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>6,31%</t>
@@ -365,31 +365,31 @@
     <t>4,43%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>7,88%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>92,18%</t>
+    <t>92,12%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -398,25 +398,22 @@
     <t>94,9%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>1,22%</t>
@@ -431,16 +428,13 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>98,78%</t>
@@ -861,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0407F5ED-2FB6-4CB6-A041-C33FAFB8CECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACB60BB-EFAC-4E25-AEA9-790D4B03DF81}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2080,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B547F09-8B64-4E13-A8C1-4AE2A6024055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2BF2EE-8DA2-49AF-9389-2CB1B843264D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3299,7 +3293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78498989-9C5B-4F3A-844F-BD7C84E39E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3462DC23-225D-4A69-92CA-7D23CC3BA125}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3966,7 +3960,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -4017,7 +4011,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4518,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521058B8-4B33-48F5-BC88-97B649044D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4C98AE-0A37-4145-A34A-184748FF9858}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5185,7 +5179,7 @@
         <v>1806</v>
       </c>
       <c r="N14" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -5236,7 +5230,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5465,7 +5459,7 @@
         <v>988</v>
       </c>
       <c r="D20" s="7">
-        <v>674631</v>
+        <v>674632</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>112</v>
@@ -5516,7 +5510,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5578,7 +5572,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>123</v>
@@ -5587,13 +5581,13 @@
         <v>64776</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -5602,13 +5596,13 @@
         <v>87899</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +5617,10 @@
         <v>3362105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>42</v>
@@ -5638,28 +5632,28 @@
         <v>3770805</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>8580</v>
       </c>
       <c r="N23" s="7">
-        <v>7132910</v>
+        <v>7132909</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,7 +5695,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86BDC9F-3FE9-481C-B704-B7E6AAD032E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EC75CF-F4BB-4347-B337-5F299020824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D75D3F5-7A9B-4ECD-BAA6-86A255639A4C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5738AC03-1FA9-4773-932E-53631B3D2929}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -260,7 +260,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACB60BB-EFAC-4E25-AEA9-790D4B03DF81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB2FD27-EABC-4917-854B-3EB0BB477599}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1957,7 +1957,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -1987,7 +1987,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2008,7 +2008,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2038,7 +2038,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2074,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2BF2EE-8DA2-49AF-9389-2CB1B843264D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39103F2E-5792-4878-8714-F6CB633878A4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,7 +3293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3462DC23-225D-4A69-92CA-7D23CC3BA125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B1E20-B868-4B70-9E52-4C2B50825AED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3960,7 +3960,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -4011,7 +4011,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4512,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4C98AE-0A37-4145-A34A-184748FF9858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE60E24E-EF7F-4830-9235-765A8B4A1AA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EC75CF-F4BB-4347-B337-5F299020824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8FE743-B577-4996-A39A-ACFA6F8086EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5738AC03-1FA9-4773-932E-53631B3D2929}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E6203BC3-F08E-49CE-A4A6-BFF8F50CB96F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="137">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -353,10 +353,10 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>6,31%</t>
@@ -365,31 +365,31 @@
     <t>4,43%</t>
   </si>
   <si>
-    <t>7,88%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>92,12%</t>
+    <t>92,18%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -398,22 +398,25 @@
     <t>94,9%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>1,22%</t>
@@ -428,13 +431,16 @@
     <t>99,32%</t>
   </si>
   <si>
+    <t>99,07%</t>
+  </si>
+  <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>98,78%</t>
@@ -855,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB2FD27-EABC-4917-854B-3EB0BB477599}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3D90A-FA44-4CC0-9B19-316CC52E0291}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1957,7 +1963,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -1987,7 +1993,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2008,7 +2014,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2038,7 +2044,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2074,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39103F2E-5792-4878-8714-F6CB633878A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F186395-09C5-4704-A72A-CAD82C26747B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,7 +3299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B1E20-B868-4B70-9E52-4C2B50825AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BC981A-08C4-443A-84A8-01D198FB4F03}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4512,7 +4518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE60E24E-EF7F-4830-9235-765A8B4A1AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A0A267-F30A-4B32-8B22-194F6F784842}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5179,7 +5185,7 @@
         <v>1806</v>
       </c>
       <c r="N14" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -5230,7 +5236,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5459,7 +5465,7 @@
         <v>988</v>
       </c>
       <c r="D20" s="7">
-        <v>674632</v>
+        <v>674631</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>112</v>
@@ -5510,7 +5516,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5572,7 +5578,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>123</v>
@@ -5581,13 +5587,13 @@
         <v>64776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -5596,13 +5602,13 @@
         <v>87899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,10 +5623,10 @@
         <v>3362105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>42</v>
@@ -5632,28 +5638,28 @@
         <v>3770805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>8580</v>
       </c>
       <c r="N23" s="7">
-        <v>7132909</v>
+        <v>7132910</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,7 +5701,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8FE743-B577-4996-A39A-ACFA6F8086EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F14DB56-AA34-486D-825C-5E2EC1AF3F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E6203BC3-F08E-49CE-A4A6-BFF8F50CB96F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7F628B7A-6B8A-4E5E-80A1-E4183C0CD392}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="170">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -128,7 +128,7 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -143,7 +143,7 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -152,7 +152,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -173,120 +173,183 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>0,44%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -308,18 +371,12 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
@@ -350,106 +407,148 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
   </si>
 </sst>
 </file>
@@ -861,8 +960,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3D90A-FA44-4CC0-9B19-316CC52E0291}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D6C2B0-2DB5-4483-B8CB-51515F5E1F2E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1781,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1796,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,46 +1904,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D20" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I20" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N20" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1856,10 +1955,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1871,10 +1970,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1886,10 +1985,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1903,7 +2002,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1921,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1936,7 +2035,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1951,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,46 +2059,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -2011,63 +2110,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D26" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I26" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="N26" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2080,8 +2335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F186395-09C5-4704-A72A-CAD82C26747B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FE790C-DD4E-4CAD-94A3-16834E507D26}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2097,7 +2352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2210,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2225,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2240,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2273,7 +2528,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2288,7 +2543,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2380,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2428,7 +2683,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2675,7 +2930,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2690,7 +2945,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2705,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,7 +2978,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2738,7 +2993,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2753,7 +3008,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2845,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2893,7 +3148,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2985,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3000,7 +3255,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3015,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,46 +3279,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D20" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I20" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N20" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3075,10 +3330,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3090,10 +3345,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3105,10 +3360,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3122,7 +3377,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3140,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3155,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3170,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,46 +3434,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D23" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I23" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N23" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3230,63 +3485,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3299,8 +3710,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BC981A-08C4-443A-84A8-01D198FB4F03}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74625308-B91B-48DE-B42C-2B342F59750E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3316,7 +3727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3444,7 +3855,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3492,7 +3903,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3584,7 +3995,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3599,7 +4010,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3614,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,7 +4043,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3647,7 +4058,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3662,7 +4073,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3739,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3787,7 +4198,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3894,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3924,7 +4335,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +4353,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3972,7 +4383,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4049,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4064,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4079,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4508,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4112,7 +4523,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4127,7 +4538,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4204,7 +4615,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4219,7 +4630,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4234,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,46 +4654,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D20" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I20" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N20" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4294,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4309,10 +4720,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4324,10 +4735,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4341,7 +4752,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4359,7 +4770,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4374,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4389,7 +4800,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,46 +4809,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3231</v>
+        <v>302</v>
       </c>
       <c r="D23" s="7">
-        <v>3394350</v>
+        <v>256998</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3338</v>
+        <v>301</v>
       </c>
       <c r="I23" s="7">
-        <v>3544542</v>
+        <v>400169</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>6569</v>
+        <v>603</v>
       </c>
       <c r="N23" s="7">
-        <v>6938892</v>
+        <v>657167</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4449,63 +4860,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3338</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6569</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6938892</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4518,8 +5085,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A0A267-F30A-4B32-8B22-194F6F784842}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7931CB83-1541-4823-8566-0088D6DC7480}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4535,7 +5102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4648,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4663,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4678,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +5257,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4705,13 +5272,13 @@
         <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4720,13 +5287,13 @@
         <v>379</v>
       </c>
       <c r="N5" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4741,7 +5308,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4756,7 +5323,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4771,7 +5338,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4803,7 +5370,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4818,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4833,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +5412,13 @@
         <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4860,13 +5427,13 @@
         <v>461</v>
       </c>
       <c r="I8" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4875,13 +5442,13 @@
         <v>763</v>
       </c>
       <c r="N8" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4896,7 +5463,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4911,7 +5478,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4926,7 +5493,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4958,7 +5525,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4973,7 +5540,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4988,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5567,13 @@
         <v>546</v>
       </c>
       <c r="D11" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -5015,13 +5582,13 @@
         <v>848</v>
       </c>
       <c r="I11" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5030,13 +5597,13 @@
         <v>1394</v>
       </c>
       <c r="N11" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5051,7 +5618,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5066,7 +5633,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5081,7 +5648,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5128,7 +5695,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5143,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,7 +5722,7 @@
         <v>665</v>
       </c>
       <c r="D14" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -5170,13 +5737,13 @@
         <v>1141</v>
       </c>
       <c r="I14" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -5185,13 +5752,13 @@
         <v>1806</v>
       </c>
       <c r="N14" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5206,7 +5773,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5221,7 +5788,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5236,7 +5803,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5298,7 +5865,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,7 +5877,7 @@
         <v>663</v>
       </c>
       <c r="D17" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -5325,7 +5892,7 @@
         <v>1002</v>
       </c>
       <c r="I17" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -5340,13 +5907,13 @@
         <v>1665</v>
       </c>
       <c r="N17" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5361,7 +5928,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5376,7 +5943,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5391,7 +5958,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5411,49 +5978,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7817</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="7">
         <v>40</v>
       </c>
-      <c r="D19" s="7">
-        <v>23123</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>19752</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>123</v>
-      </c>
-      <c r="I19" s="7">
-        <v>64776</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>87899</v>
+        <v>27569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,49 +6029,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>988</v>
+        <v>556</v>
       </c>
       <c r="D20" s="7">
-        <v>674631</v>
+        <v>360348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
-        <v>1585</v>
+        <v>787</v>
       </c>
       <c r="I20" s="7">
-        <v>961861</v>
+        <v>588616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
-        <v>2573</v>
+        <v>1343</v>
       </c>
       <c r="N20" s="7">
-        <v>1636493</v>
+        <v>948964</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,10 +6080,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5528,10 +6095,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5543,10 +6110,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5560,55 +6127,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>23123</v>
+        <v>14238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>64776</v>
+        <v>39864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="N22" s="7">
-        <v>87899</v>
+        <v>54102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,49 +6184,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3336</v>
+        <v>432</v>
       </c>
       <c r="D23" s="7">
-        <v>3362105</v>
+        <v>268521</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
-        <v>5244</v>
+        <v>798</v>
       </c>
       <c r="I23" s="7">
-        <v>3770805</v>
+        <v>385967</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
-        <v>8580</v>
+        <v>1230</v>
       </c>
       <c r="N23" s="7">
-        <v>7132910</v>
+        <v>654488</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,63 +6235,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>22055</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="7">
+        <v>123</v>
+      </c>
+      <c r="I25" s="7">
+        <v>59616</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="7">
+        <v>163</v>
+      </c>
+      <c r="N25" s="7">
+        <v>81671</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3336</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3437762</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5244</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3652664</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8580</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7090426</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
